--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep/ifoCAst_errors_last_rep_latest_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep/ifoCAst_errors_last_rep_latest_GVA.xlsx
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.01983578087274</v>
+        <v>1.029332457036088</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.2601534814259835</v>
+        <v>0.24128467758209</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -539,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.468880585300236</v>
+        <v>-1.459370673031765</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -555,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.788328404264559</v>
+        <v>0.7977233685636995</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -563,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.046340567331129</v>
+        <v>1.027544699529146</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -571,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.1279530128375473</v>
+        <v>0.1374695422775655</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -579,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.9320335390585944</v>
+        <v>-0.9225503716806988</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -587,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.5556741615100106</v>
+        <v>0.5557457034887239</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -595,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.129468777484837</v>
+        <v>1.11054283609348</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -603,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.7211232408064123</v>
+        <v>0.7305722247131936</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -619,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.5253523983890247</v>
+        <v>-0.4776197014916527</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -627,12 +627,15 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.1542060022360053</v>
+        <v>0.04982731217580827</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.2651053283564908</v>
       </c>
     </row>
     <row r="25" spans="1:2">
